--- a/demo/ams_benchmark/opf/cases/npcc_uced.xlsx
+++ b/demo/ams_benchmark/opf/cases/npcc_uced.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/icebar/CaseStudy/opf/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/npcc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B58790-ED4A-2F49-B16C-C4C47DC6053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C1FF61-3B0C-574F-BE35-7E1460F1B5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="PV" sheetId="3" r:id="rId4"/>
     <sheet name="Slack" sheetId="4" r:id="rId5"/>
     <sheet name="Line" sheetId="5" r:id="rId6"/>
-    <sheet name="Region" sheetId="6" r:id="rId7"/>
+    <sheet name="Zone" sheetId="6" r:id="rId7"/>
     <sheet name="GCost" sheetId="7" r:id="rId8"/>
     <sheet name="EDTSlot" sheetId="9" r:id="rId9"/>
     <sheet name="UCTSlot" sheetId="10" r:id="rId10"/>
@@ -17970,9 +17970,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG48"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF2" sqref="AF2:AG2"/>
+      <selection pane="bottomLeft" activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18173,10 +18173,10 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
@@ -18274,10 +18274,10 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -18375,10 +18375,10 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -18476,10 +18476,10 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -18577,10 +18577,10 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -18678,10 +18678,10 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
@@ -18779,10 +18779,10 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
@@ -18880,10 +18880,10 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -18981,10 +18981,10 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
@@ -19082,10 +19082,10 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
@@ -19183,10 +19183,10 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
@@ -19284,10 +19284,10 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
@@ -19385,10 +19385,10 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
@@ -19486,10 +19486,10 @@
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
@@ -19587,10 +19587,10 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
@@ -19688,10 +19688,10 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
@@ -19789,10 +19789,10 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
@@ -19890,10 +19890,10 @@
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
@@ -19991,10 +19991,10 @@
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
@@ -20092,10 +20092,10 @@
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
@@ -20193,10 +20193,10 @@
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
@@ -20294,10 +20294,10 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
@@ -20395,10 +20395,10 @@
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
@@ -20496,10 +20496,10 @@
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG25">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
@@ -20597,10 +20597,10 @@
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
@@ -20698,10 +20698,10 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
@@ -20799,10 +20799,10 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG28">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
@@ -20900,10 +20900,10 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
@@ -21001,10 +21001,10 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
@@ -21102,10 +21102,10 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
@@ -21203,10 +21203,10 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
@@ -21304,10 +21304,10 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
@@ -21405,10 +21405,10 @@
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
@@ -21506,10 +21506,10 @@
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG35">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
@@ -21607,10 +21607,10 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
@@ -21708,10 +21708,10 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
@@ -21809,10 +21809,10 @@
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
@@ -21910,10 +21910,10 @@
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG39">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
@@ -22011,10 +22011,10 @@
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
@@ -22112,10 +22112,10 @@
         <v>0</v>
       </c>
       <c r="AF41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG41">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
@@ -22213,10 +22213,10 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
@@ -22314,10 +22314,10 @@
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG43">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
@@ -22415,10 +22415,10 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG44">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
@@ -22516,10 +22516,10 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG45">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
@@ -22617,10 +22617,10 @@
         <v>0</v>
       </c>
       <c r="AF46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG46">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
@@ -22718,10 +22718,10 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG47">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
@@ -22819,10 +22819,10 @@
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG48">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22835,9 +22835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF11" sqref="AF11"/>
+      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2:AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23044,10 +23044,10 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -41804,7 +41804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
